--- a/biology/Médecine/Waldo_Vieira/Waldo_Vieira.xlsx
+++ b/biology/Médecine/Waldo_Vieira/Waldo_Vieira.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Waldo Vieira, né le 12 avril 1932 à Monte Carmelo, et mort le 2 juillet 2015 à Foz do Iguaçu[1] est un médecin brésilien qui a proposé les théories de Projectiologie et Conscienciologie, deux thèses paranormales qui concernent la nature de la conscience. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Waldo Vieira, né le 12 avril 1932 à Monte Carmelo, et mort le 2 juillet 2015 à Foz do Iguaçu est un médecin brésilien qui a proposé les théories de Projectiologie et Conscienciologie, deux thèses paranormales qui concernent la nature de la conscience. 
 Selon Vieira, la conscience a une existence indépendante du corps, et peut être séparée de ce dernier par une expérience hors du corps (voyage astral). Vieira a écrit plus de vingt livres sur le sujet, et prétend avoir eu de nombreuses expériences de projection astrale.
 </t>
         </is>
